--- a/01-Documents/AideMemoire.xlsx
+++ b/01-Documents/AideMemoire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\ETML-Cours\01-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D9F50-7A72-472B-8C3B-E6AB23EEB994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C7034-5694-4D9F-A9CE-B65DC88CC0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Terme</t>
   </si>
@@ -357,6 +357,18 @@
   <si>
     <t>Un programme séquentiel execute toutes les instructions dans un certain ordre donné sans avoir à prendre en compte des événements externes. 
 Les événements exterieurs sont des actions de l'utilisateur, qui révèle de la programmation événementielle</t>
+  </si>
+  <si>
+    <t>Live lock</t>
+  </si>
+  <si>
+    <t>Un ou plusieurs programmes répètant continuellement la même tâche sans pour autant être utile. Il récupère le processeur, mais dès qu'un processus plus important se déclanche, il repart dans la queue</t>
+  </si>
+  <si>
+    <t>Mutual exclusion</t>
+  </si>
+  <si>
+    <t>Prérequis pour un processus qui est dans une section critique et qui accède à des ressources partagées. Aucun autre processus ne peut être dans la section critique qui accèdes à ces ressources partagées.</t>
   </si>
 </sst>
 </file>
@@ -653,10 +665,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B82A87AF-3D88-449D-A261-7B1963A07F8A}" name="Tableau1" displayName="Tableau1" ref="A1:E17" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A1:E17" xr:uid="{88CE4598-B324-4FBE-BAA9-E10F70A5B010}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B82A87AF-3D88-449D-A261-7B1963A07F8A}" name="Tableau1" displayName="Tableau1" ref="A1:E19" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E19" xr:uid="{88CE4598-B324-4FBE-BAA9-E10F70A5B010}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0070CFE8-F516-4A0E-A939-FC1AB9B8178A}" name="Terme" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0070CFE8-F516-4A0E-A939-FC1AB9B8178A}" name="Terme" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{53EC205A-29A4-4980-ADC1-666059CDC5FD}" name="Définition" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{9CC02160-95D1-47CC-90D6-5D7073A1DF23}" name="Schéma" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{C53AEA85-D96C-401A-B88B-4E57B6C87B85}" name="Remarques" dataDxfId="1"/>
@@ -929,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1137,28 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" location=":~:text=Un%20programme%20parall%C3%A8le%20est%20divis%C3%A9%20en%20plusieurs%20t%C3%A2ches,Anglais%2C%20on%20parle%20de%20TLP%20%28Thread%20Level%20Parallelism%29." display=":~:text=Un%20programme%20parall%C3%A8le%20est%20divis%C3%A9%20en%20plusieurs%20t%C3%A2ches,Anglais%2C%20on%20parle%20de%20TLP%20%28Thread%20Level%20Parallelism%29." xr:uid="{3B8B4623-3530-4E2C-B4CB-960A8CE8BFE8}"/>

--- a/01-Documents/AideMemoire.xlsx
+++ b/01-Documents/AideMemoire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\ETML-Cours\01-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5C7034-5694-4D9F-A9CE-B65DC88CC0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAF152-561D-4D7F-8D57-551BCE52984B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Terme</t>
   </si>
@@ -110,9 +110,6 @@
     <t>L'execution simultanée de plusieurs tâches ou processus sur une certaine intervalle de temps. Comme windows, qui peut executer plusieurs processus, comme chrome, bloc note, etc…</t>
   </si>
   <si>
-    <t>Programme en cours d'execution. Chaque programme executé séparément est un processus</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -369,6 +366,219 @@
   </si>
   <si>
     <t>Prérequis pour un processus qui est dans une section critique et qui accède à des ressources partagées. Aucun autre processus ne peut être dans la section critique qui accèdes à ces ressources partagées.</t>
+  </si>
+  <si>
+    <t>Race Condition</t>
+  </si>
+  <si>
+    <t>Situation lorsque plusieurs processus lisent ou modifient une ressource de données ou le résultat final au départ du temps d'execution des processus</t>
+  </si>
+  <si>
+    <t>Starvation</t>
+  </si>
+  <si>
+    <t>Situation loù l'un des processus n'est pas choisi par l'ordonnanceur, il ne peut plus continuer car il n'est jamais choisi</t>
+  </si>
+  <si>
+    <t>Sequence atomique</t>
+  </si>
+  <si>
+    <t>Séquence d'instructions qui s'executent toutes ou pas du tout.</t>
+  </si>
+  <si>
+    <t>Sémaphore</t>
+  </si>
+  <si>
+    <t>Sémaphore binaire</t>
+  </si>
+  <si>
+    <t>Mutex</t>
+  </si>
+  <si>
+    <t>Moniteur</t>
+  </si>
+  <si>
+    <t>Process ID</t>
+  </si>
+  <si>
+    <t>Security descriptor</t>
+  </si>
+  <si>
+    <t>Cela décrit qui à créé l'objet, qui peut et ne peut pas l'utiliser</t>
+  </si>
+  <si>
+    <t>Priorité d'execution de base pour les processus</t>
+  </si>
+  <si>
+    <t>Identifiant unique qui définit un processus</t>
+  </si>
+  <si>
+    <t>Base priority</t>
+  </si>
+  <si>
+    <t>Default processor affinity</t>
+  </si>
+  <si>
+    <t>Liste par défaut des processeurs sur lesquels les threads du processus peuvent être executés</t>
+  </si>
+  <si>
+    <t>Quota Limit</t>
+  </si>
+  <si>
+    <t>Temps maximum et taille mémoire maximum qu'un processus peut utiliser</t>
+  </si>
+  <si>
+    <t>Execution time</t>
+  </si>
+  <si>
+    <t>I/O counters</t>
+  </si>
+  <si>
+    <t>Exception/debugging ports</t>
+  </si>
+  <si>
+    <t>Exit status</t>
+  </si>
+  <si>
+    <t>Le temps total de tous les threads d'un processus qui ont été executés</t>
+  </si>
+  <si>
+    <t>Programme en cours d'execution. Chaque programme executé séparément est un processus. Chaque processus contient au moins 1 thread et il est impossible qu'il en ait 0</t>
+  </si>
+  <si>
+    <t>le nombre et le type d'operation I/O (clavier, fichier) que les threads font pour un processus</t>
+  </si>
+  <si>
+    <t>VM (virtual memory) operation counters</t>
+  </si>
+  <si>
+    <t>Compter le nombre d'opérations fait uniquement dans la mémoire virtuelle</t>
+  </si>
+  <si>
+    <t>Canneaux de communication (channel) entre les processus. Le process manager est capable de faire transiter des messages d'execption et debug sur ces des cannaux pour communiquer avec les threads et inversement.</t>
+  </si>
+  <si>
+    <t>La raison pour laquelle le processus est terminé</t>
+  </si>
+  <si>
+    <t>erreur, finit son travail, tuer le processus par le processus système ou lui-même ou parent.</t>
+  </si>
+  <si>
+    <t>Thread ID</t>
+  </si>
+  <si>
+    <t>Thread context</t>
+  </si>
+  <si>
+    <t>Dynamic priority</t>
+  </si>
+  <si>
+    <t>Id du thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registres CPU </t>
+  </si>
+  <si>
+    <t>Priorité d'execution du thread à un momen donné</t>
+  </si>
+  <si>
+    <t>Thread processor affinity</t>
+  </si>
+  <si>
+    <t>Thread execution time</t>
+  </si>
+  <si>
+    <t>Alert status</t>
+  </si>
+  <si>
+    <t>Suspension count</t>
+  </si>
+  <si>
+    <t>Impersonation tokne</t>
+  </si>
+  <si>
+    <t>Termination port</t>
+  </si>
+  <si>
+    <t>Thread exit status</t>
+  </si>
+  <si>
+    <t>La raison pour laquelle le thread est terminé</t>
+  </si>
+  <si>
+    <t>0/15</t>
+  </si>
+  <si>
+    <t>Processus kernel</t>
+  </si>
+  <si>
+    <t>Priorité d'execution de base pour les threads</t>
+  </si>
+  <si>
+    <t>Flag 0-1 pour savoir si le thread est utilisé</t>
+  </si>
+  <si>
+    <t>Le nombre de fois où le thread devrait être suspendu sans qu'il soit terminé</t>
+  </si>
+  <si>
+    <t>Champs d'accès temporaire pour qu'un thread s'execute dessus</t>
+  </si>
+  <si>
+    <t>Canneaux de communication (channel) entre les processus. Et envoyer un "message" lorsque le thread finit son execution</t>
+  </si>
+  <si>
+    <t>Create thread</t>
+  </si>
+  <si>
+    <t>Créer un thread</t>
+  </si>
+  <si>
+    <t>Alert thread</t>
+  </si>
+  <si>
+    <t>Test thread alert</t>
+  </si>
+  <si>
+    <t>Tester si les alertes fonctionnent</t>
+  </si>
+  <si>
+    <t>Etre allérté si y a un problème et agir</t>
+  </si>
+  <si>
+    <t>Open thread</t>
+  </si>
+  <si>
+    <t>Ouvrir un thread</t>
+  </si>
+  <si>
+    <t>Query thread information</t>
+  </si>
+  <si>
+    <t>Set thread information</t>
+  </si>
+  <si>
+    <t>Current thread</t>
+  </si>
+  <si>
+    <t>Thread actuel</t>
+  </si>
+  <si>
+    <t>Terminate thread</t>
+  </si>
+  <si>
+    <t>Get context</t>
+  </si>
+  <si>
+    <t>Set context</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Register termination port</t>
   </si>
 </sst>
 </file>
@@ -665,8 +875,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B82A87AF-3D88-449D-A261-7B1963A07F8A}" name="Tableau1" displayName="Tableau1" ref="A1:E19" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A1:E19" xr:uid="{88CE4598-B324-4FBE-BAA9-E10F70A5B010}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B82A87AF-3D88-449D-A261-7B1963A07F8A}" name="Tableau1" displayName="Tableau1" ref="A1:E66" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E66" xr:uid="{88CE4598-B324-4FBE-BAA9-E10F70A5B010}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0070CFE8-F516-4A0E-A939-FC1AB9B8178A}" name="Terme" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{53EC205A-29A4-4980-ADC1-666059CDC5FD}" name="Définition" dataDxfId="3"/>
@@ -941,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,12 +1216,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
@@ -1031,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -1051,10 +1261,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1100,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -1132,17 +1342,17 @@
         <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -1150,14 +1360,485 @@
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/01-Documents/AideMemoire.xlsx
+++ b/01-Documents/AideMemoire.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damloup\Desktop\ETML-Cours\01-Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAF152-561D-4D7F-8D57-551BCE52984B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55462800-BC61-4D46-A52C-AC04C0841837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Terme</t>
   </si>
@@ -579,6 +587,18 @@
   </si>
   <si>
     <t>Register termination port</t>
+  </si>
+  <si>
+    <t>Un processus qui génère plusieurs thread en même temps</t>
+  </si>
+  <si>
+    <t>L'ordonnanceur est la fonction duprocesseur qui distribue le temps d'occupation de celui-ci</t>
+  </si>
+  <si>
+    <t>Permet de laisser passer un ou plusieurs threads dans la zone critique</t>
+  </si>
+  <si>
+    <t>Permet de laisser passer qu'un seul thread dans la zone critique</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1251,9 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1287,11 +1309,13 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1402,11 +1426,13 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1415,7 +1441,9 @@
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1424,7 +1452,10 @@
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="str">
+        <f>A19</f>
+        <v>Mutual exclusion</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
